--- a/medicine/Enfance/Craig_Strete/Craig_Strete.xlsx
+++ b/medicine/Enfance/Craig_Strete/Craig_Strete.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Craig Strete, né le 6 mai 1950 à Fort Wayne dans l'Indiana, est un écrivain américain de science-fiction et de livres pour enfants.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Craig Strete est né le 6 mai 1950 à Fort Wayne dans l'Indiana. Il obtient son Bachelor of Arts en 1975 à l'université de Wayne State et son Master of Fine Arts en 1978 à l'université de Californie à Irvine, puis commence à travailler pour l'industrie du cinéma et de la télévision, avant de devenir professeur à l'université de San José.
-Dès 1974, il commence à publier des nouvelles puis des romans courts, à l'intersection de la science-fiction, de la fantasy et de la culture amérindienne. Curieusement, sa première publication en volume (celle de son futur recueil américain If All Else Falls) aura lieu à Amsterdam dans une traduction nééerlandaise, en 1976[1]. Ses premiers textes publiés engendrent un certain enthousiasme : ses nouvelles Time Deer et The Bleeding Man sont nommées au prix Nebula 1975, son premier recueil The Bleeding Man and Other Stories est publié en 1977 avec une préface élogieuse de Virginia Hamilton, son deuxième recueil If All Else Fails l'est en 1980 avec une préface dithyrambique de Jorge Luis Borges[2],[3], tandis qu'en France Yves Frémion témoigne de son enthousiasme dans la revue Univers entre 1977 et 1979.
-Une querelle avec Harlan Ellison en 1988-1990, à propos d'une affaire de prétendu plagiat[4] l'ayant opposé à Ron Montana[2], va toutefois, même après qu'il a été largement innocenté[5], lui causer un certain tort au sein du milieu de la science-fiction américaine[6], tandis que son roman Burn Down the Night (1982), mettant en scène une rencontre avec Jim Morrison lorsque Craig Strete était adolescent, s'il est une réussite commerciale, est vivement contesté, notamment par Ray Manzarek qui y voit un « coup » médiatique à partir de faits essentiellement fictifs[7].
-Le personnage demeure mystérieux et controversé, et a longtemps évolué sous plusieurs pseudonymes différents. Il serait d'ascendance principalement cherokee[8].
+Dès 1974, il commence à publier des nouvelles puis des romans courts, à l'intersection de la science-fiction, de la fantasy et de la culture amérindienne. Curieusement, sa première publication en volume (celle de son futur recueil américain If All Else Falls) aura lieu à Amsterdam dans une traduction nééerlandaise, en 1976. Ses premiers textes publiés engendrent un certain enthousiasme : ses nouvelles Time Deer et The Bleeding Man sont nommées au prix Nebula 1975, son premier recueil The Bleeding Man and Other Stories est publié en 1977 avec une préface élogieuse de Virginia Hamilton, son deuxième recueil If All Else Fails l'est en 1980 avec une préface dithyrambique de Jorge Luis Borges tandis qu'en France Yves Frémion témoigne de son enthousiasme dans la revue Univers entre 1977 et 1979.
+Une querelle avec Harlan Ellison en 1988-1990, à propos d'une affaire de prétendu plagiat l'ayant opposé à Ron Montana, va toutefois, même après qu'il a été largement innocenté, lui causer un certain tort au sein du milieu de la science-fiction américaine, tandis que son roman Burn Down the Night (1982), mettant en scène une rencontre avec Jim Morrison lorsque Craig Strete était adolescent, s'il est une réussite commerciale, est vivement contesté, notamment par Ray Manzarek qui y voit un « coup » médiatique à partir de faits essentiellement fictifs.
+Le personnage demeure mystérieux et controversé, et a longtemps évolué sous plusieurs pseudonymes différents. Il serait d'ascendance principalement cherokee.
 Après 1990, il se lance dans l'écriture de textes pour enfants, qui constituent dès lors la quasi-totalité de sa production littéraire.
-Il est aujourd'hui professeur au département d'anglais de l'université East Stroudsburg en Pennsylvanie[9].
+Il est aujourd'hui professeur au département d'anglais de l'université East Stroudsburg en Pennsylvanie.
 </t>
         </is>
       </c>
@@ -549,20 +563,127 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Album jeunesse
-Mange-pieds et le garçon sans nom, un conte traditionnel d'origine amérindienne, Éditions Circonflexe, 2001
-Romans
-(en) Paint your Face on a Drowning in the River, Greenwillow Books, 1978
+          <t>Album jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mange-pieds et le garçon sans nom, un conte traditionnel d'origine amérindienne, Éditions Circonflexe, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Craig_Strete</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craig_Strete</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Paint your Face on a Drowning in the River, Greenwillow Books, 1978
 (en) Burn Down the Night, Warner Books, 1982
 (en) To Make Death Love Us, Doubleday, 1987
-(en) Death in the Spirit House, Doubleday, 1988
-Recueils de nouvelles originaux
-(en) The Bleeding Man and Other Science Fiction Stories, William Morrow/Greenwillow, 1977 - Préface de Virginia Hamilton.
+(en) Death in the Spirit House, Doubleday, 1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Craig_Strete</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craig_Strete</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles originaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Bleeding Man and Other Science Fiction Stories, William Morrow/Greenwillow, 1977 - Préface de Virginia Hamilton.
 (en) If All Else Fails, Doubleday, 1980 - Préface de Jorge Luis Borges.
 (en) Dreams that Burn in the Night, Doubleday, 1982
-(en) Death Chants, Doubleday, 1988 - Préface de Salvador Dali[10].
-Recueil de nouvelles français
-Si tout se casse la gueule, Kesselring, coll. « Ici et maintenant - Romans » no 10, 1980Préface de Jorge Luis Borges[11]
+(en) Death Chants, Doubleday, 1988 - Préface de Salvador Dali.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Craig_Strete</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craig_Strete</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles français</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Si tout se casse la gueule, Kesselring, coll. « Ici et maintenant - Romans » no 10, 1980Préface de Jorge Luis Borges
 Toutes mes statues ont des ailes de pierre, 1980 ((en) All My Statues Have Stone Wings, 1980)
 Pour voir la cité assise sur ses édifices, 1977 ((en) To See the City Sitting on Its Buildings, 1975)Parue initialement sous le titre Voir la cité assise sur ses bâtiments, dans la revue Galaxie no 151 aux éditions OPTA
 Samedi soir au poste d'observation de la femme blanche, 1977 ((en) Saturday Night at the White Woman Watching Hole, 1976)Parue initialement dans l'anthologie Univers 08 aux éditions J'ai lu, coll. « Science-fiction » no 732
@@ -579,9 +700,43 @@
 Quel fut le premier oscar à recevoir un nègre ?, 1977 ((en) Who Was the First Oscar to Win a Negro?, 1976)Parue initialement sous le titre Qui fut le premier oscar à recevoir un nègre ?, dans l'anthologie Univers 09 aux éditions J'ai lu, coll. « Science-fiction » no 754
 L'Homme qui saigne, 1976 ((en) The Bleeding Man, 1974)Parue initialement sous le titre L'Homme qui saignait, dans la revue Galaxie no 147 aux éditions OPTA - Nommé au prix Nebula de la meilleure nouvelle longue 1975
 Quand ils partent, 1980 ((en) When They Go Away, 1976)
-La haine est un amour infiniment douloureux, 1980 ((en) With the Pain It Loves and Hates, 1976)
-Autre nouvelle traduite en français
-Nous sommes les gens dont nos parents nous ont causé au téléphone, 1978 ((en) We Are the People Our Parents Warned Us About, 1982)Parue dans l'anthologie Univers 13 aux éditions J'ai lu, coll. « Science-fiction » no 837</t>
+La haine est un amour infiniment douloureux, 1980 ((en) With the Pain It Loves and Hates, 1976)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Craig_Strete</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craig_Strete</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autre nouvelle traduite en français</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nous sommes les gens dont nos parents nous ont causé au téléphone, 1978 ((en) We Are the People Our Parents Warned Us About, 1982)Parue dans l'anthologie Univers 13 aux éditions J'ai lu, coll. « Science-fiction » no 837</t>
         </is>
       </c>
     </row>
